--- a/Data/OLTP/All.xlsx
+++ b/Data/OLTP/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myata\Desktop\SQL-DataProc-CourseWork\Data\OLTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D66B8DC-BE90-4E87-AFF0-1A2DD7B19D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED3A49-79FF-4CD2-AC6D-BF14F3CF1DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Developers" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="276">
   <si>
     <t>DeveloperID</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -1346,11 +1343,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1676,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,11 +1714,8 @@
       <c r="E2" s="1">
         <v>40179</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1733,10 +1723,10 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>2012</v>
@@ -1748,7 +1738,7 @@
         <v>44926</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,10 +1746,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4">
         <v>2015</v>
@@ -1767,11 +1757,8 @@
       <c r="E4" s="1">
         <v>42005</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1779,10 +1766,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5">
         <v>2013</v>
@@ -1794,7 +1781,7 @@
         <v>44377</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1802,7 +1789,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1813,11 +1800,8 @@
       <c r="E6" s="1">
         <v>42370</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1825,10 +1809,10 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>2018</v>
@@ -1836,11 +1820,8 @@
       <c r="E7" s="1">
         <v>43101</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1848,10 +1829,10 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -1859,11 +1840,8 @@
       <c r="E8" s="1">
         <v>41640</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,10 +1849,10 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9">
         <v>2020</v>
@@ -1882,11 +1860,8 @@
       <c r="E9" s="1">
         <v>43831</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1894,10 +1869,10 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -1905,11 +1880,8 @@
       <c r="E10" s="1">
         <v>42736</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1917,10 +1889,10 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11">
         <v>2019</v>
@@ -1932,7 +1904,7 @@
         <v>44927</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1940,7 +1912,7 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1951,11 +1923,8 @@
       <c r="E12" s="1">
         <v>44197</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1963,10 +1932,10 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13">
         <v>2022</v>
@@ -1974,11 +1943,8 @@
       <c r="E13" s="1">
         <v>44562</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,10 +1952,10 @@
         <v>113</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -1997,11 +1963,8 @@
       <c r="E14" s="1">
         <v>44197</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2009,10 +1972,10 @@
         <v>114</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
       <c r="D15">
         <v>2018</v>
@@ -2024,7 +1987,7 @@
         <v>44926</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2032,10 +1995,10 @@
         <v>115</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
       <c r="D16">
         <v>2017</v>
@@ -2043,11 +2006,8 @@
       <c r="E16" s="1">
         <v>42736</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2055,10 +2015,10 @@
         <v>116</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
       </c>
       <c r="D17">
         <v>2015</v>
@@ -2066,11 +2026,8 @@
       <c r="E17" s="1">
         <v>42005</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,7 +2035,7 @@
         <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -2089,11 +2046,8 @@
       <c r="E18" s="1">
         <v>43831</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,10 +2055,10 @@
         <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>2019</v>
@@ -2112,11 +2066,8 @@
       <c r="E19" s="1">
         <v>43466</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2124,10 +2075,10 @@
         <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>2021</v>
@@ -2135,11 +2086,8 @@
       <c r="E20" s="1">
         <v>44197</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2147,10 +2095,10 @@
         <v>120</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
       </c>
       <c r="D21">
         <v>2022</v>
@@ -2158,11 +2106,8 @@
       <c r="E21" s="1">
         <v>44562</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2182,13 +2127,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2207,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2218,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2229,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2240,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2251,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2262,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2273,7 +2218,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2284,7 +2229,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2295,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2306,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2317,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2328,7 +2273,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2339,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2350,7 +2295,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2361,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2372,7 +2317,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2383,7 +2328,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -2394,7 +2339,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -2405,7 +2350,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2428,13 +2373,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2453,10 +2398,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2464,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,10 +2420,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,10 +2431,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,10 +2442,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,7 +2453,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2519,10 +2464,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2530,10 +2475,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,10 +2486,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2552,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2563,10 +2508,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2574,7 +2519,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -2585,10 +2530,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,10 +2541,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2607,10 +2552,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2618,10 +2563,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2629,10 +2574,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,7 +2585,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2651,10 +2596,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2674,22 +2619,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2723,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -2743,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2763,7 +2708,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2783,7 +2728,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2803,7 +2748,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2823,7 +2768,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2843,7 +2788,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2863,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2883,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -2903,7 +2848,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2923,7 +2868,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2943,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -2963,7 +2908,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -2983,7 +2928,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -3003,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -3023,7 +2968,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -3043,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -3063,7 +3008,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -3083,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -3103,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -3123,7 +3068,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -3143,7 +3088,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -3163,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3183,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -3203,7 +3148,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -3223,7 +3168,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -3243,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -3263,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3283,7 +3228,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -3303,7 +3248,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -3323,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -3343,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -3363,7 +3308,7 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -3383,7 +3328,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -3403,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -3423,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -3443,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -3463,7 +3408,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -3483,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -3503,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -3523,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -3543,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -3563,7 +3508,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3583,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -3603,7 +3548,7 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3623,7 +3568,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -3643,7 +3588,7 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3663,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3683,7 +3628,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -3703,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -3723,7 +3668,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -3743,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -3763,7 +3708,7 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -3783,7 +3728,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -3803,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -3823,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3843,7 +3788,7 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -3863,7 +3808,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -3883,7 +3828,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -3903,7 +3848,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -3923,7 +3868,7 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3943,7 +3888,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -3963,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -3983,7 +3928,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -4003,13 +3948,13 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4023,7 +3968,7 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -4043,7 +3988,7 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -4063,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -4083,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -4103,7 +4048,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -4123,7 +4068,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -4143,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -4163,7 +4108,7 @@
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4183,7 +4128,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -4203,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -4223,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -4243,7 +4188,7 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -4263,7 +4208,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -4283,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -4303,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -4323,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -4343,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -4363,7 +4308,7 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -4383,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -4403,7 +4348,7 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -4423,7 +4368,7 @@
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -4443,7 +4388,7 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -4463,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4483,7 +4428,7 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -4503,7 +4448,7 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -4523,7 +4468,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -4543,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E94">
         <v>5</v>
@@ -4563,7 +4508,7 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -4583,7 +4528,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -4603,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -4623,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -4643,7 +4588,7 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -4663,7 +4608,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -4683,7 +4628,7 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -4709,19 +4654,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6441,19 +6386,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
         <v>200</v>
-      </c>
-      <c r="C1" t="s">
-        <v>201</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6461,10 +6406,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
         <v>203</v>
-      </c>
-      <c r="C2" t="s">
-        <v>204</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -6478,10 +6423,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -6495,10 +6440,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
         <v>206</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -6512,10 +6457,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -6529,10 +6474,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
         <v>209</v>
-      </c>
-      <c r="C6" t="s">
-        <v>210</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -6546,10 +6491,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -6563,10 +6508,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
         <v>212</v>
-      </c>
-      <c r="C8" t="s">
-        <v>213</v>
       </c>
       <c r="D8">
         <v>107</v>
@@ -6580,10 +6525,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
         <v>214</v>
-      </c>
-      <c r="C9" t="s">
-        <v>215</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -6597,10 +6542,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -6614,10 +6559,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -6631,10 +6576,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -6648,10 +6593,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -6665,10 +6610,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
         <v>220</v>
-      </c>
-      <c r="C14" t="s">
-        <v>221</v>
       </c>
       <c r="D14">
         <v>113</v>
@@ -6682,10 +6627,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15">
         <v>114</v>
@@ -6699,10 +6644,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16">
         <v>115</v>
@@ -6716,10 +6661,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17">
         <v>116</v>
@@ -6733,10 +6678,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18">
         <v>117</v>
@@ -6750,10 +6695,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19">
         <v>118</v>
@@ -6767,10 +6712,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20">
         <v>119</v>
@@ -6784,10 +6729,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21">
         <v>120</v>
@@ -6812,1719 +6757,1719 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44941</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45337</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45444</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44995</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45387</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45082</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45127</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45519</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45170</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45275</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45667</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45232</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45155</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45052</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45221</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45028</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45417</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44967</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45194</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45575</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45107</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44954</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45117</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45519</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45245</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45263</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45006</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45403</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45149</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45546</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45667</v>
+      </c>
+      <c r="E33" s="1">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45366</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45853</v>
+      </c>
+      <c r="E35" s="1">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45327</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45503</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45383</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45413</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45575</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45778</v>
+      </c>
+      <c r="E41" s="1">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45311</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45366</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45646</v>
+      </c>
+      <c r="E44" s="1">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45453</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45112</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45524</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45641</v>
+      </c>
+      <c r="E48" s="1">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45417</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45598</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45321</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45698</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45392</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45352</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45627</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45698</v>
+      </c>
+      <c r="E60" s="1">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45514</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45397</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45792</v>
+      </c>
+      <c r="E64" s="1">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45444</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45483</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45689</v>
+      </c>
+      <c r="E70" s="1">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45550</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45427</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45453</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45901</v>
+      </c>
+      <c r="E75" s="1">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45677</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45585</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45950</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45662</v>
+      </c>
+      <c r="E78" s="1">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45731</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="1">
+        <v>46006</v>
+      </c>
+      <c r="E81" s="1">
+        <v>46188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45458</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45752</v>
+      </c>
+      <c r="E83" s="1">
+        <v>46117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45667</v>
+      </c>
+      <c r="E84" s="1">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45879</v>
+      </c>
+      <c r="E85" s="1">
+        <v>46244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45627</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>231</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45787</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45672</v>
+      </c>
+      <c r="E88" s="1">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>231</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45931</v>
+      </c>
+      <c r="E89" s="1">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>232</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45752</v>
+      </c>
+      <c r="E90" s="1">
+        <v>46117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45828</v>
+      </c>
+      <c r="E91" s="1">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45731</v>
+      </c>
+      <c r="E92" s="1">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45693</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D94" s="1">
+        <v>45889</v>
+      </c>
+      <c r="E94" s="1">
+        <v>46254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="3">
-        <v>44941</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D95" s="1">
+        <v>45693</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45726</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="3">
-        <v>45337</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45444</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="3">
-        <v>44995</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45387</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="D97" s="1">
+        <v>45575</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C99" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="3">
-        <v>45082</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45127</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D99" s="1">
+        <v>45498</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="3">
-        <v>45519</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45170</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45566</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45275</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45667</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45232</v>
-      </c>
-      <c r="E14" s="3">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45155</v>
-      </c>
-      <c r="E15" s="3">
-        <v>45521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45052</v>
-      </c>
-      <c r="E16" s="3">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45221</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45028</v>
-      </c>
-      <c r="E18" s="3">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="3">
-        <v>45417</v>
-      </c>
-      <c r="E19" s="3">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="3">
-        <v>44967</v>
-      </c>
-      <c r="E20" s="3">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45194</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="3">
-        <v>45575</v>
-      </c>
-      <c r="E22" s="3">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45107</v>
-      </c>
-      <c r="E23" s="3">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44954</v>
-      </c>
-      <c r="E24" s="3">
-        <v>45319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="3">
-        <v>45117</v>
-      </c>
-      <c r="E25" s="3">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45519</v>
-      </c>
-      <c r="E26" s="3">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45245</v>
-      </c>
-      <c r="E27" s="3">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45263</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="3">
-        <v>45006</v>
-      </c>
-      <c r="E29" s="3">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="3">
-        <v>45403</v>
-      </c>
-      <c r="E30" s="3">
-        <v>45494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D31" s="3">
-        <v>45149</v>
-      </c>
-      <c r="E31" s="3">
-        <v>45515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>20</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="3">
-        <v>45546</v>
-      </c>
-      <c r="E32" s="3">
-        <v>45637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="3">
-        <v>45667</v>
-      </c>
-      <c r="E33" s="3">
-        <v>46032</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45366</v>
-      </c>
-      <c r="E34" s="3">
-        <v>45458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D35" s="3">
-        <v>45853</v>
-      </c>
-      <c r="E35" s="3">
-        <v>46037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="3">
-        <v>45327</v>
-      </c>
-      <c r="E36" s="3">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>14</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="3">
-        <v>45503</v>
-      </c>
-      <c r="E37" s="3">
-        <v>45868</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>3</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="3">
-        <v>45383</v>
-      </c>
-      <c r="E38" s="3">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="3">
-        <v>45413</v>
-      </c>
-      <c r="E39" s="3">
-        <v>45778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" s="3">
-        <v>45575</v>
-      </c>
-      <c r="E40" s="3">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>19</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="3">
-        <v>45778</v>
-      </c>
-      <c r="E41" s="3">
-        <v>46143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>13</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="3">
-        <v>45311</v>
-      </c>
-      <c r="E42" s="3">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" s="3">
-        <v>45366</v>
-      </c>
-      <c r="E43" s="3">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>17</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="3">
-        <v>45646</v>
-      </c>
-      <c r="E44" s="3">
-        <v>46011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>18</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="3">
-        <v>45453</v>
-      </c>
-      <c r="E45" s="3">
-        <v>45818</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="3">
-        <v>45112</v>
-      </c>
-      <c r="E46" s="3">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="3">
-        <v>45524</v>
-      </c>
-      <c r="E47" s="3">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>15</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" s="3">
-        <v>45641</v>
-      </c>
-      <c r="E48" s="3">
-        <v>46006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <v>8</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D49" s="3">
-        <v>45417</v>
-      </c>
-      <c r="E49" s="3">
-        <v>45601</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D50" s="3">
-        <v>45598</v>
-      </c>
-      <c r="E50" s="3">
-        <v>45963</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>11</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="3">
-        <v>45321</v>
-      </c>
-      <c r="E51" s="3">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>10</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="3">
-        <v>45631</v>
-      </c>
-      <c r="E52" s="3">
-        <v>45996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2">
-        <v>19</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D53" s="3">
-        <v>45698</v>
-      </c>
-      <c r="E53" s="3">
-        <v>45787</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2">
-        <v>20</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D54" s="3">
-        <v>45392</v>
-      </c>
-      <c r="E54" s="3">
-        <v>45757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2">
-        <v>3</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D55" s="3">
-        <v>45474</v>
-      </c>
-      <c r="E55" s="3">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D56" s="3">
-        <v>45352</v>
-      </c>
-      <c r="E56" s="3">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" s="3">
-        <v>45611</v>
-      </c>
-      <c r="E57" s="3">
-        <v>45792</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2">
-        <v>7</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D58" s="3">
-        <v>45545</v>
-      </c>
-      <c r="E58" s="3">
-        <v>45910</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2">
-        <v>16</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="D101" s="1">
         <v>45627</v>
       </c>
-      <c r="E59" s="3">
-        <v>45809</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2">
-        <v>4</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D60" s="3">
-        <v>45698</v>
-      </c>
-      <c r="E60" s="3">
-        <v>46063</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2">
-        <v>13</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D61" s="3">
-        <v>45514</v>
-      </c>
-      <c r="E61" s="3">
-        <v>45879</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="3">
-        <v>45397</v>
-      </c>
-      <c r="E62" s="3">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2">
-        <v>8</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D63" s="3">
-        <v>45356</v>
-      </c>
-      <c r="E63" s="3">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2">
-        <v>16</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D64" s="3">
-        <v>45792</v>
-      </c>
-      <c r="E64" s="3">
-        <v>46157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="3">
-        <v>45566</v>
-      </c>
-      <c r="E65" s="3">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2">
-        <v>2</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D66" s="3">
-        <v>45444</v>
-      </c>
-      <c r="E66" s="3">
-        <v>45809</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2">
-        <v>5</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" s="3">
-        <v>45483</v>
-      </c>
-      <c r="E67" s="3">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2">
-        <v>11</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D68" s="3">
-        <v>45536</v>
-      </c>
-      <c r="E68" s="3">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2">
-        <v>4</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D69" s="3">
-        <v>45292</v>
-      </c>
-      <c r="E69" s="3">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2">
-        <v>10</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D70" s="3">
-        <v>45689</v>
-      </c>
-      <c r="E70" s="3">
-        <v>46054</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2">
-        <v>13</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D71" s="3">
-        <v>45550</v>
-      </c>
-      <c r="E71" s="3">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2">
-        <v>17</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D72" s="3">
-        <v>45611</v>
-      </c>
-      <c r="E72" s="3">
-        <v>45976</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2">
-        <v>18</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D73" s="3">
-        <v>45427</v>
-      </c>
-      <c r="E73" s="3">
-        <v>45792</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2">
-        <v>19</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D74" s="3">
-        <v>45453</v>
-      </c>
-      <c r="E74" s="3">
-        <v>45818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2">
-        <v>6</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D75" s="3">
-        <v>45901</v>
-      </c>
-      <c r="E75" s="3">
-        <v>46266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2">
-        <v>15</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D76" s="3">
-        <v>45677</v>
-      </c>
-      <c r="E76" s="3">
-        <v>45858</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2">
-        <v>7</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D77" s="3">
-        <v>45585</v>
-      </c>
-      <c r="E77" s="3">
-        <v>45950</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2">
-        <v>14</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D78" s="3">
-        <v>45662</v>
-      </c>
-      <c r="E78" s="3">
-        <v>46027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2">
-        <v>9</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D79" s="3">
-        <v>45731</v>
-      </c>
-      <c r="E79" s="3">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2">
-        <v>11</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D80" s="3">
-        <v>45474</v>
-      </c>
-      <c r="E80" s="3">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2">
-        <v>2</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D81" s="3">
-        <v>46006</v>
-      </c>
-      <c r="E81" s="3">
-        <v>46188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2">
-        <v>8</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D82" s="3">
-        <v>45458</v>
-      </c>
-      <c r="E82" s="3">
-        <v>45823</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2">
-        <v>6</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" s="3">
-        <v>45752</v>
-      </c>
-      <c r="E83" s="3">
-        <v>46117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2">
-        <v>3</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="3">
-        <v>45667</v>
-      </c>
-      <c r="E84" s="3">
-        <v>46032</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2">
-        <v>5</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D85" s="3">
-        <v>45879</v>
-      </c>
-      <c r="E85" s="3">
-        <v>46244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2">
-        <v>18</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D86" s="3">
-        <v>45627</v>
-      </c>
-      <c r="E86" s="3">
-        <v>45992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D87" s="3">
-        <v>45787</v>
-      </c>
-      <c r="E87" s="3">
-        <v>45971</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2">
-        <v>12</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D88" s="3">
-        <v>45672</v>
-      </c>
-      <c r="E88" s="3">
-        <v>45853</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2">
-        <v>16</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D89" s="3">
-        <v>45931</v>
-      </c>
-      <c r="E89" s="3">
-        <v>46296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2">
-        <v>2</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D90" s="3">
-        <v>45752</v>
-      </c>
-      <c r="E90" s="3">
-        <v>46117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>90</v>
-      </c>
-      <c r="B91" s="2">
-        <v>17</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" s="3">
-        <v>45828</v>
-      </c>
-      <c r="E91" s="3">
-        <v>46011</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2">
-        <v>4</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D92" s="3">
-        <v>45731</v>
-      </c>
-      <c r="E92" s="3">
-        <v>46096</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2">
-        <v>13</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D93" s="3">
-        <v>45693</v>
-      </c>
-      <c r="E93" s="3">
-        <v>45874</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>93</v>
-      </c>
-      <c r="B94" s="2">
-        <v>7</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D94" s="3">
-        <v>45889</v>
-      </c>
-      <c r="E94" s="3">
-        <v>46254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2">
-        <v>8</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D95" s="3">
-        <v>45693</v>
-      </c>
-      <c r="E95" s="3">
-        <v>45874</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
-      <c r="B96" s="2">
-        <v>10</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="3">
-        <v>45726</v>
-      </c>
-      <c r="E96" s="3">
-        <v>45910</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2">
-        <v>20</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D97" s="3">
-        <v>45575</v>
-      </c>
-      <c r="E97" s="3">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>97</v>
-      </c>
-      <c r="B98" s="2">
-        <v>9</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D98" s="3">
-        <v>45616</v>
-      </c>
-      <c r="E98" s="3">
-        <v>45981</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>98</v>
-      </c>
-      <c r="B99" s="2">
-        <v>6</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D99" s="3">
-        <v>45498</v>
-      </c>
-      <c r="E99" s="3">
-        <v>45863</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
-      <c r="B100" s="2">
-        <v>12</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D100" s="3">
-        <v>45422</v>
-      </c>
-      <c r="E100" s="3">
-        <v>45787</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
-      <c r="B101" s="2">
-        <v>15</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D101" s="3">
-        <v>45627</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="E101" s="1">
         <v>45992</v>
       </c>
     </row>
@@ -8537,303 +8482,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2434E8F5-650B-4C88-B339-CCB8D133B7AF}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="1">
+        <v>33007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="5">
-        <v>33007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1">
+        <v>31320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="5">
-        <v>31320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1">
+        <v>36607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="5">
-        <v>36607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1">
+        <v>33804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="5">
-        <v>33804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1">
+        <v>32167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="5">
-        <v>32167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="1">
+        <v>32092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="5">
-        <v>32092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="1">
+        <v>34252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="5">
-        <v>34252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="1">
+        <v>34750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="5">
-        <v>34750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="1">
+        <v>30139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="5">
-        <v>30139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="1">
+        <v>37072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="5">
-        <v>37072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="1">
+        <v>34561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>258</v>
       </c>
-      <c r="D12" s="5">
-        <v>34561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="1">
+        <v>36134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>260</v>
       </c>
-      <c r="D13" s="5">
-        <v>36134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="1">
+        <v>33337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="5">
-        <v>33337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="1">
+        <v>35695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="5">
-        <v>35695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="1">
+        <v>35204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="5">
-        <v>35204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="1">
+        <v>32579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="5">
-        <v>32579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="1">
+        <v>31033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="5">
-        <v>31033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="1">
+        <v>33607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="5">
-        <v>33607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="1">
+        <v>34137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="5">
-        <v>34137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="D21" s="1">
         <v>36455</v>
       </c>
     </row>

--- a/Data/OLTP/All.xlsx
+++ b/Data/OLTP/All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myata\Desktop\SQL-DataProc-CourseWork\Data\OLTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED3A49-79FF-4CD2-AC6D-BF14F3CF1DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D04D35-734F-4766-9235-86D8DEB75908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="274">
   <si>
     <t>DeveloperID</t>
   </si>
@@ -61,16 +61,10 @@
     <t>USA</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>InnovateCorp</t>
   </si>
   <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
   <si>
     <t>FutureGizmos</t>
@@ -1670,7 +1664,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,8 +1708,11 @@
       <c r="E2" s="1">
         <v>40179</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,10 +1720,10 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>2012</v>
@@ -1737,8 +1734,8 @@
       <c r="F3" s="1">
         <v>44926</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,10 +1743,10 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>2015</v>
@@ -1757,8 +1754,11 @@
       <c r="E4" s="1">
         <v>42005</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1766,10 +1766,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>2013</v>
@@ -1780,8 +1780,8 @@
       <c r="F5" s="1">
         <v>44377</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1800,8 +1800,11 @@
       <c r="E6" s="1">
         <v>42370</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1809,10 +1812,10 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>2018</v>
@@ -1820,8 +1823,11 @@
       <c r="E7" s="1">
         <v>43101</v>
       </c>
-      <c r="G7" t="s">
-        <v>9</v>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1829,10 +1835,10 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -1840,8 +1846,11 @@
       <c r="E8" s="1">
         <v>41640</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,10 +1858,10 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>2020</v>
@@ -1860,8 +1869,11 @@
       <c r="E9" s="1">
         <v>43831</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,10 +1881,10 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -1880,8 +1892,11 @@
       <c r="E10" s="1">
         <v>42736</v>
       </c>
-      <c r="G10" t="s">
-        <v>9</v>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,10 +1904,10 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>2019</v>
@@ -1903,8 +1918,8 @@
       <c r="F11" s="1">
         <v>44927</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1912,7 +1927,7 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1923,8 +1938,11 @@
       <c r="E12" s="1">
         <v>44197</v>
       </c>
-      <c r="G12" t="s">
-        <v>9</v>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1932,10 +1950,10 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>2022</v>
@@ -1943,8 +1961,11 @@
       <c r="E13" s="1">
         <v>44562</v>
       </c>
-      <c r="G13" t="s">
-        <v>9</v>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,10 +1973,10 @@
         <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -1963,8 +1984,11 @@
       <c r="E14" s="1">
         <v>44197</v>
       </c>
-      <c r="G14" t="s">
-        <v>9</v>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,10 +1996,10 @@
         <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>2018</v>
@@ -1986,8 +2010,8 @@
       <c r="F15" s="1">
         <v>44926</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,10 +2019,10 @@
         <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>2017</v>
@@ -2006,8 +2030,11 @@
       <c r="E16" s="1">
         <v>42736</v>
       </c>
-      <c r="G16" t="s">
-        <v>9</v>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2015,10 +2042,10 @@
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>2015</v>
@@ -2026,8 +2053,11 @@
       <c r="E17" s="1">
         <v>42005</v>
       </c>
-      <c r="G17" t="s">
-        <v>9</v>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,7 +2065,7 @@
         <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -2046,8 +2076,11 @@
       <c r="E18" s="1">
         <v>43831</v>
       </c>
-      <c r="G18" t="s">
-        <v>9</v>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2055,10 +2088,10 @@
         <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>2019</v>
@@ -2066,8 +2099,11 @@
       <c r="E19" s="1">
         <v>43466</v>
       </c>
-      <c r="G19" t="s">
-        <v>9</v>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,10 +2111,10 @@
         <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>2021</v>
@@ -2086,8 +2122,11 @@
       <c r="E20" s="1">
         <v>44197</v>
       </c>
-      <c r="G20" t="s">
-        <v>9</v>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2095,10 +2134,10 @@
         <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>2022</v>
@@ -2106,8 +2145,11 @@
       <c r="E21" s="1">
         <v>44562</v>
       </c>
-      <c r="G21" t="s">
-        <v>9</v>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2127,13 +2169,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2141,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2152,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2163,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2174,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2185,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2196,7 +2238,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2207,7 +2249,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2218,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2229,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2240,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2251,7 +2293,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2262,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2273,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2284,7 +2326,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2295,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2306,7 +2348,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2317,7 +2359,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2328,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -2339,7 +2381,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -2350,7 +2392,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2373,13 +2415,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2398,10 +2440,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2409,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,10 +2462,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2431,10 +2473,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,10 +2484,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2464,10 +2506,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2475,10 +2517,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2486,10 +2528,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,10 +2539,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,10 +2550,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2519,7 +2561,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -2530,10 +2572,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2541,10 +2583,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2552,10 +2594,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2563,10 +2605,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2574,10 +2616,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2585,7 +2627,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2596,10 +2638,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2619,22 +2661,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2648,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2668,7 +2710,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -2688,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2708,7 +2750,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2728,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2748,7 +2790,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2768,7 +2810,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2788,7 +2830,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2808,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2828,7 +2870,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -2848,7 +2890,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2868,7 +2910,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2888,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -2908,7 +2950,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -2928,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -2948,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2968,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2988,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -3008,7 +3050,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -3028,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -3048,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -3068,7 +3110,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -3088,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -3108,7 +3150,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3128,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -3148,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -3168,7 +3210,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -3188,7 +3230,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -3208,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3228,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -3248,7 +3290,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -3268,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -3288,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -3308,7 +3350,7 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -3328,7 +3370,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -3348,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -3368,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -3388,7 +3430,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -3408,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -3428,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -3448,7 +3490,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -3468,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -3488,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -3508,7 +3550,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3528,7 +3570,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -3548,7 +3590,7 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3568,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -3588,7 +3630,7 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3608,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3628,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -3648,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -3668,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -3688,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -3708,7 +3750,7 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -3728,7 +3770,7 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -3748,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -3768,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3788,7 +3830,7 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -3808,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -3828,7 +3870,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -3848,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -3868,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3888,7 +3930,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -3908,7 +3950,7 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -3928,7 +3970,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -3948,13 +3990,13 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3968,7 +4010,7 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -3988,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -4008,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -4028,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -4048,7 +4090,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -4068,7 +4110,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -4088,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -4108,7 +4150,7 @@
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4128,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -4148,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -4168,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -4188,7 +4230,7 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -4208,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -4228,7 +4270,7 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -4248,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -4268,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -4288,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -4308,7 +4350,7 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -4328,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -4348,7 +4390,7 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -4368,7 +4410,7 @@
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -4388,7 +4430,7 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -4408,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4428,7 +4470,7 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -4448,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -4468,7 +4510,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -4488,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E94">
         <v>5</v>
@@ -4508,7 +4550,7 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -4528,7 +4570,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -4548,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -4568,7 +4610,7 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -4588,7 +4630,7 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -4608,7 +4650,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -4628,7 +4670,7 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -4654,19 +4696,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
         <v>196</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6386,19 +6428,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6406,10 +6448,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -6423,10 +6465,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -6440,10 +6482,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -6457,10 +6499,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -6474,10 +6516,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -6491,10 +6533,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -6508,10 +6550,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D8">
         <v>107</v>
@@ -6525,10 +6567,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -6542,10 +6584,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -6559,10 +6601,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -6576,10 +6618,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -6593,10 +6635,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -6610,10 +6652,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14">
         <v>113</v>
@@ -6627,10 +6669,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D15">
         <v>114</v>
@@ -6644,10 +6686,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16">
         <v>115</v>
@@ -6661,10 +6703,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D17">
         <v>116</v>
@@ -6678,10 +6720,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D18">
         <v>117</v>
@@ -6695,10 +6737,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D19">
         <v>118</v>
@@ -6712,10 +6754,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D20">
         <v>119</v>
@@ -6729,10 +6771,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21">
         <v>120</v>
@@ -6758,13 +6800,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -6781,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1">
         <v>44941</v>
@@ -6798,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1">
         <v>45337</v>
@@ -6815,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" s="1">
         <v>45444</v>
@@ -6832,7 +6874,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1">
         <v>44995</v>
@@ -6849,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D6" s="1">
         <v>45387</v>
@@ -6866,7 +6908,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D7" s="1">
         <v>45082</v>
@@ -6883,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="1">
         <v>45127</v>
@@ -6900,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D9" s="1">
         <v>45519</v>
@@ -6917,7 +6959,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1">
         <v>45170</v>
@@ -6934,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1">
         <v>45566</v>
@@ -6951,7 +6993,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" s="1">
         <v>45275</v>
@@ -6968,7 +7010,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1">
         <v>45667</v>
@@ -6985,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1">
         <v>45232</v>
@@ -7002,7 +7044,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D15" s="1">
         <v>45155</v>
@@ -7019,7 +7061,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" s="1">
         <v>45052</v>
@@ -7036,7 +7078,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="1">
         <v>45221</v>
@@ -7053,7 +7095,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D18" s="1">
         <v>45028</v>
@@ -7070,7 +7112,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D19" s="1">
         <v>45417</v>
@@ -7087,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D20" s="1">
         <v>44967</v>
@@ -7104,7 +7146,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="1">
         <v>45194</v>
@@ -7121,7 +7163,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D22" s="1">
         <v>45575</v>
@@ -7138,7 +7180,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D23" s="1">
         <v>45107</v>
@@ -7155,7 +7197,7 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D24" s="1">
         <v>44954</v>
@@ -7172,7 +7214,7 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="1">
         <v>45117</v>
@@ -7189,7 +7231,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D26" s="1">
         <v>45519</v>
@@ -7206,7 +7248,7 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D27" s="1">
         <v>45245</v>
@@ -7223,7 +7265,7 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D28" s="1">
         <v>45263</v>
@@ -7240,7 +7282,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="1">
         <v>45006</v>
@@ -7257,7 +7299,7 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="1">
         <v>45403</v>
@@ -7274,7 +7316,7 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D31" s="1">
         <v>45149</v>
@@ -7291,7 +7333,7 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D32" s="1">
         <v>45546</v>
@@ -7308,7 +7350,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D33" s="1">
         <v>45667</v>
@@ -7325,7 +7367,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D34" s="1">
         <v>45366</v>
@@ -7342,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D35" s="1">
         <v>45853</v>
@@ -7359,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D36" s="1">
         <v>45327</v>
@@ -7376,7 +7418,7 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D37" s="1">
         <v>45503</v>
@@ -7393,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D38" s="1">
         <v>45383</v>
@@ -7410,7 +7452,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D39" s="1">
         <v>45413</v>
@@ -7427,7 +7469,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D40" s="1">
         <v>45575</v>
@@ -7444,7 +7486,7 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D41" s="1">
         <v>45778</v>
@@ -7461,7 +7503,7 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" s="1">
         <v>45311</v>
@@ -7478,7 +7520,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D43" s="1">
         <v>45366</v>
@@ -7495,7 +7537,7 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D44" s="1">
         <v>45646</v>
@@ -7512,7 +7554,7 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D45" s="1">
         <v>45453</v>
@@ -7529,7 +7571,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D46" s="1">
         <v>45112</v>
@@ -7546,7 +7588,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D47" s="1">
         <v>45524</v>
@@ -7563,7 +7605,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D48" s="1">
         <v>45641</v>
@@ -7580,7 +7622,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D49" s="1">
         <v>45417</v>
@@ -7597,7 +7639,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D50" s="1">
         <v>45598</v>
@@ -7614,7 +7656,7 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D51" s="1">
         <v>45321</v>
@@ -7631,7 +7673,7 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D52" s="1">
         <v>45631</v>
@@ -7648,7 +7690,7 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D53" s="1">
         <v>45698</v>
@@ -7665,7 +7707,7 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D54" s="1">
         <v>45392</v>
@@ -7682,7 +7724,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D55" s="1">
         <v>45474</v>
@@ -7699,7 +7741,7 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D56" s="1">
         <v>45352</v>
@@ -7716,7 +7758,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D57" s="1">
         <v>45611</v>
@@ -7733,7 +7775,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D58" s="1">
         <v>45545</v>
@@ -7750,7 +7792,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D59" s="1">
         <v>45627</v>
@@ -7767,7 +7809,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D60" s="1">
         <v>45698</v>
@@ -7784,7 +7826,7 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D61" s="1">
         <v>45514</v>
@@ -7801,7 +7843,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D62" s="1">
         <v>45397</v>
@@ -7818,7 +7860,7 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D63" s="1">
         <v>45356</v>
@@ -7835,7 +7877,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D64" s="1">
         <v>45792</v>
@@ -7852,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D65" s="1">
         <v>45566</v>
@@ -7869,7 +7911,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D66" s="1">
         <v>45444</v>
@@ -7886,7 +7928,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D67" s="1">
         <v>45483</v>
@@ -7903,7 +7945,7 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D68" s="1">
         <v>45536</v>
@@ -7920,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D69" s="1">
         <v>45292</v>
@@ -7937,7 +7979,7 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D70" s="1">
         <v>45689</v>
@@ -7954,7 +7996,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D71" s="1">
         <v>45550</v>
@@ -7971,7 +8013,7 @@
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D72" s="1">
         <v>45611</v>
@@ -7988,7 +8030,7 @@
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D73" s="1">
         <v>45427</v>
@@ -8005,7 +8047,7 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D74" s="1">
         <v>45453</v>
@@ -8022,7 +8064,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D75" s="1">
         <v>45901</v>
@@ -8039,7 +8081,7 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D76" s="1">
         <v>45677</v>
@@ -8056,7 +8098,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D77" s="1">
         <v>45585</v>
@@ -8073,7 +8115,7 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="1">
         <v>45662</v>
@@ -8090,7 +8132,7 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="1">
         <v>45731</v>
@@ -8107,7 +8149,7 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="1">
         <v>45474</v>
@@ -8124,7 +8166,7 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="1">
         <v>46006</v>
@@ -8141,7 +8183,7 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="1">
         <v>45458</v>
@@ -8158,7 +8200,7 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="1">
         <v>45752</v>
@@ -8175,7 +8217,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D84" s="1">
         <v>45667</v>
@@ -8192,7 +8234,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D85" s="1">
         <v>45879</v>
@@ -8209,7 +8251,7 @@
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D86" s="1">
         <v>45627</v>
@@ -8226,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D87" s="1">
         <v>45787</v>
@@ -8243,7 +8285,7 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D88" s="1">
         <v>45672</v>
@@ -8260,7 +8302,7 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D89" s="1">
         <v>45931</v>
@@ -8277,7 +8319,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D90" s="1">
         <v>45752</v>
@@ -8294,7 +8336,7 @@
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D91" s="1">
         <v>45828</v>
@@ -8311,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D92" s="1">
         <v>45731</v>
@@ -8328,7 +8370,7 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D93" s="1">
         <v>45693</v>
@@ -8345,7 +8387,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D94" s="1">
         <v>45889</v>
@@ -8362,7 +8404,7 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D95" s="1">
         <v>45693</v>
@@ -8379,7 +8421,7 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D96" s="1">
         <v>45726</v>
@@ -8396,7 +8438,7 @@
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D97" s="1">
         <v>45575</v>
@@ -8413,7 +8455,7 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D98" s="1">
         <v>45616</v>
@@ -8430,7 +8472,7 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D99" s="1">
         <v>45498</v>
@@ -8447,7 +8489,7 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D100" s="1">
         <v>45422</v>
@@ -8464,7 +8506,7 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D101" s="1">
         <v>45627</v>
@@ -8490,16 +8532,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
         <v>233</v>
-      </c>
-      <c r="C1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8507,10 +8549,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D2" s="1">
         <v>33007</v>
@@ -8521,10 +8563,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1">
         <v>31320</v>
@@ -8535,10 +8577,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D4" s="1">
         <v>36607</v>
@@ -8549,10 +8591,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1">
         <v>33804</v>
@@ -8563,10 +8605,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D6" s="1">
         <v>32167</v>
@@ -8577,10 +8619,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1">
         <v>32092</v>
@@ -8591,10 +8633,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D8" s="1">
         <v>34252</v>
@@ -8605,10 +8647,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D9" s="1">
         <v>34750</v>
@@ -8619,10 +8661,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1">
         <v>30139</v>
@@ -8633,10 +8675,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="1">
         <v>37072</v>
@@ -8647,10 +8689,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D12" s="1">
         <v>34561</v>
@@ -8661,10 +8703,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D13" s="1">
         <v>36134</v>
@@ -8675,10 +8717,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D14" s="1">
         <v>33337</v>
@@ -8689,10 +8731,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D15" s="1">
         <v>35695</v>
@@ -8703,10 +8745,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D16" s="1">
         <v>35204</v>
@@ -8717,10 +8759,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1">
         <v>32579</v>
@@ -8731,10 +8773,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D18" s="1">
         <v>31033</v>
@@ -8745,10 +8787,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="1">
         <v>33607</v>
@@ -8759,10 +8801,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D20" s="1">
         <v>34137</v>
@@ -8773,10 +8815,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D21" s="1">
         <v>36455</v>

--- a/Data/OLTP/All.xlsx
+++ b/Data/OLTP/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myata\Desktop\SQL-DataProc-CourseWork\Data\OLTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D04D35-734F-4766-9235-86D8DEB75908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA45B295-33BE-4A72-B45E-E16AFE7BAB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Developers" sheetId="1" r:id="rId1"/>
@@ -860,6 +860,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1337,9 +1340,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1663,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4686,13 +4690,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72FEB95-BA5D-4599-9B29-7C9D812FCB28}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E101"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D145" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4704,7 +4711,7 @@
       <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E1" t="s">
@@ -4721,7 +4728,7 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>44941</v>
       </c>
       <c r="E2">
@@ -4738,7 +4745,7 @@
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>44995</v>
       </c>
       <c r="E3">
@@ -4755,7 +4762,7 @@
       <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>45082</v>
       </c>
       <c r="E4">
@@ -4772,7 +4779,7 @@
       <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>45127</v>
       </c>
       <c r="E5">
@@ -4789,7 +4796,7 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>45170</v>
       </c>
       <c r="E6">
@@ -4806,7 +4813,7 @@
       <c r="C7">
         <v>14</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>45275</v>
       </c>
       <c r="E7">
@@ -4823,7 +4830,7 @@
       <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>45232</v>
       </c>
       <c r="E8">
@@ -4840,7 +4847,7 @@
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>45155</v>
       </c>
       <c r="E9">
@@ -4857,7 +4864,7 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>45052</v>
       </c>
       <c r="E10">
@@ -4874,7 +4881,7 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>45221</v>
       </c>
       <c r="E11">
@@ -4891,7 +4898,7 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>45028</v>
       </c>
       <c r="E12">
@@ -4908,7 +4915,7 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>44967</v>
       </c>
       <c r="E13">
@@ -4925,7 +4932,7 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>45194</v>
       </c>
       <c r="E14">
@@ -4942,7 +4949,7 @@
       <c r="C15">
         <v>17</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>45107</v>
       </c>
       <c r="E15">
@@ -4959,7 +4966,7 @@
       <c r="C16">
         <v>18</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>44954</v>
       </c>
       <c r="E16">
@@ -4976,7 +4983,7 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>45117</v>
       </c>
       <c r="E17">
@@ -4993,7 +5000,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>45245</v>
       </c>
       <c r="E18">
@@ -5010,7 +5017,7 @@
       <c r="C19">
         <v>13</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>45263</v>
       </c>
       <c r="E19">
@@ -5027,7 +5034,7 @@
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>45006</v>
       </c>
       <c r="E20">
@@ -5044,7 +5051,7 @@
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>45149</v>
       </c>
       <c r="E21">
@@ -5061,7 +5068,7 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>45337</v>
       </c>
       <c r="E22">
@@ -5078,7 +5085,7 @@
       <c r="C23">
         <v>7</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>45361</v>
       </c>
       <c r="E23">
@@ -5095,7 +5102,7 @@
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>45413</v>
       </c>
       <c r="E24">
@@ -5112,7 +5119,7 @@
       <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>45306</v>
       </c>
       <c r="E25">
@@ -5129,7 +5136,7 @@
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>45536</v>
       </c>
       <c r="E26">
@@ -5146,7 +5153,7 @@
       <c r="C27">
         <v>14</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>45453</v>
       </c>
       <c r="E27">
@@ -5163,7 +5170,7 @@
       <c r="C28">
         <v>19</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>45627</v>
       </c>
       <c r="E28">
@@ -5180,7 +5187,7 @@
       <c r="C29">
         <v>20</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>45488</v>
       </c>
       <c r="E29">
@@ -5197,7 +5204,7 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>45575</v>
       </c>
       <c r="E30">
@@ -5214,7 +5221,7 @@
       <c r="C31">
         <v>9</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>45618</v>
       </c>
       <c r="E31">
@@ -5231,7 +5238,7 @@
       <c r="C32">
         <v>11</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>45383</v>
       </c>
       <c r="E32">
@@ -5248,7 +5255,7 @@
       <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>45296</v>
       </c>
       <c r="E33">
@@ -5265,7 +5272,7 @@
       <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>45422</v>
       </c>
       <c r="E34">
@@ -5282,7 +5289,7 @@
       <c r="C35">
         <v>17</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>45505</v>
       </c>
       <c r="E35">
@@ -5299,7 +5306,7 @@
       <c r="C36">
         <v>18</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>45342</v>
       </c>
       <c r="E36">
@@ -5316,7 +5323,7 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>45597</v>
       </c>
       <c r="E37">
@@ -5333,7 +5340,7 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>45636</v>
       </c>
       <c r="E38">
@@ -5350,7 +5357,7 @@
       <c r="C39">
         <v>13</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>45478</v>
       </c>
       <c r="E39">
@@ -5367,7 +5374,7 @@
       <c r="C40">
         <v>16</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>45376</v>
       </c>
       <c r="E40">
@@ -5384,7 +5391,7 @@
       <c r="C41">
         <v>10</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>45553</v>
       </c>
       <c r="E41">
@@ -5401,7 +5408,7 @@
       <c r="C42">
         <v>7</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>45648</v>
       </c>
       <c r="E42">
@@ -5418,7 +5425,7 @@
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>45453</v>
       </c>
       <c r="E43">
@@ -5435,7 +5442,7 @@
       <c r="C44">
         <v>14</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>45336</v>
       </c>
       <c r="E44">
@@ -5452,7 +5459,7 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>45387</v>
       </c>
       <c r="E45">
@@ -5469,7 +5476,7 @@
       <c r="C46">
         <v>19</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>45293</v>
       </c>
       <c r="E46">
@@ -5486,7 +5493,7 @@
       <c r="C47">
         <v>20</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>45509</v>
       </c>
       <c r="E47">
@@ -5503,7 +5510,7 @@
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>45547</v>
       </c>
       <c r="E48">
@@ -5520,7 +5527,7 @@
       <c r="C49">
         <v>9</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>45379</v>
       </c>
       <c r="E49">
@@ -5537,7 +5544,7 @@
       <c r="C50">
         <v>11</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>45429</v>
       </c>
       <c r="E50">
@@ -5554,7 +5561,7 @@
       <c r="C51">
         <v>6</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>45361</v>
       </c>
       <c r="E51">
@@ -5571,7 +5578,7 @@
       <c r="C52">
         <v>4</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>45350</v>
       </c>
       <c r="E52">
@@ -5588,7 +5595,7 @@
       <c r="C53">
         <v>17</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>45614</v>
       </c>
       <c r="E53">
@@ -5605,7 +5612,7 @@
       <c r="C54">
         <v>18</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>45423</v>
       </c>
       <c r="E54">
@@ -5622,7 +5629,7 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>45493</v>
       </c>
       <c r="E55">
@@ -5639,7 +5646,7 @@
       <c r="C56">
         <v>3</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>45526</v>
       </c>
       <c r="E56">
@@ -5656,7 +5663,7 @@
       <c r="C57">
         <v>13</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>45412</v>
       </c>
       <c r="E57">
@@ -5673,7 +5680,7 @@
       <c r="C58">
         <v>16</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>45458</v>
       </c>
       <c r="E58">
@@ -5690,7 +5697,7 @@
       <c r="C59">
         <v>10</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>45590</v>
       </c>
       <c r="E59">
@@ -5707,7 +5714,7 @@
       <c r="C60">
         <v>3</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>45514</v>
       </c>
       <c r="E60">
@@ -5724,7 +5731,7 @@
       <c r="C61">
         <v>7</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>45597</v>
       </c>
       <c r="E61">
@@ -5741,7 +5748,7 @@
       <c r="C62">
         <v>12</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>45381</v>
       </c>
       <c r="E62">
@@ -5758,7 +5765,7 @@
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>45437</v>
       </c>
       <c r="E63">
@@ -5775,7 +5782,7 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>45627</v>
       </c>
       <c r="E64">
@@ -5792,7 +5799,7 @@
       <c r="C65">
         <v>14</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>45545</v>
       </c>
       <c r="E65">
@@ -5809,7 +5816,7 @@
       <c r="C66">
         <v>19</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>45570</v>
       </c>
       <c r="E66">
@@ -5826,7 +5833,7 @@
       <c r="C67">
         <v>20</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>45468</v>
       </c>
       <c r="E67">
@@ -5843,7 +5850,7 @@
       <c r="C68">
         <v>2</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>45397</v>
       </c>
       <c r="E68">
@@ -5860,7 +5867,7 @@
       <c r="C69">
         <v>9</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>45629</v>
       </c>
       <c r="E69">
@@ -5877,7 +5884,7 @@
       <c r="C70">
         <v>11</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>45553</v>
       </c>
       <c r="E70">
@@ -5894,7 +5901,7 @@
       <c r="C71">
         <v>6</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>45618</v>
       </c>
       <c r="E71">
@@ -5911,7 +5918,7 @@
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>45301</v>
       </c>
       <c r="E72">
@@ -5928,7 +5935,7 @@
       <c r="C73">
         <v>17</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>45387</v>
       </c>
       <c r="E73">
@@ -5945,7 +5952,7 @@
       <c r="C74">
         <v>18</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>45550</v>
       </c>
       <c r="E74">
@@ -5962,7 +5969,7 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>45654</v>
       </c>
       <c r="E75">
@@ -5979,7 +5986,7 @@
       <c r="C76">
         <v>3</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>45342</v>
       </c>
       <c r="E76">
@@ -5996,7 +6003,7 @@
       <c r="C77">
         <v>13</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>45577</v>
       </c>
       <c r="E77">
@@ -6013,7 +6020,7 @@
       <c r="C78">
         <v>16</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>45503</v>
       </c>
       <c r="E78">
@@ -6030,7 +6037,7 @@
       <c r="C79">
         <v>10</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>45432</v>
       </c>
       <c r="E79">
@@ -6047,7 +6054,7 @@
       <c r="C80">
         <v>3</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>45458</v>
       </c>
       <c r="E80">
@@ -6064,7 +6071,7 @@
       <c r="C81">
         <v>7</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>45563</v>
       </c>
       <c r="E81">
@@ -6081,7 +6088,7 @@
       <c r="C82">
         <v>12</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>45327</v>
       </c>
       <c r="E82">
@@ -6098,7 +6105,7 @@
       <c r="C83">
         <v>8</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>45363</v>
       </c>
       <c r="E83">
@@ -6115,7 +6122,7 @@
       <c r="C84">
         <v>5</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>45392</v>
       </c>
       <c r="E84">
@@ -6132,7 +6139,7 @@
       <c r="C85">
         <v>14</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>45433</v>
       </c>
       <c r="E85">
@@ -6149,7 +6156,7 @@
       <c r="C86">
         <v>19</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>45321</v>
       </c>
       <c r="E86">
@@ -6166,7 +6173,7 @@
       <c r="C87">
         <v>20</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>45640</v>
       </c>
       <c r="E87">
@@ -6183,7 +6190,7 @@
       <c r="C88">
         <v>2</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>45522</v>
       </c>
       <c r="E88">
@@ -6200,7 +6207,7 @@
       <c r="C89">
         <v>9</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>45475</v>
       </c>
       <c r="E89">
@@ -6217,7 +6224,7 @@
       <c r="C90">
         <v>11</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>45576</v>
       </c>
       <c r="E90">
@@ -6234,7 +6241,7 @@
       <c r="C91">
         <v>6</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>45627</v>
       </c>
       <c r="E91">
@@ -6251,7 +6258,7 @@
       <c r="C92">
         <v>4</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>45455</v>
       </c>
       <c r="E92">
@@ -6268,7 +6275,7 @@
       <c r="C93">
         <v>17</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>45545</v>
       </c>
       <c r="E93">
@@ -6285,7 +6292,7 @@
       <c r="C94">
         <v>18</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>45582</v>
       </c>
       <c r="E94">
@@ -6302,7 +6309,7 @@
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>45369</v>
       </c>
       <c r="E95">
@@ -6319,7 +6326,7 @@
       <c r="C96">
         <v>3</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>45444</v>
       </c>
       <c r="E96">
@@ -6336,7 +6343,7 @@
       <c r="C97">
         <v>13</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>45303</v>
       </c>
       <c r="E97">
@@ -6353,7 +6360,7 @@
       <c r="C98">
         <v>16</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>45529</v>
       </c>
       <c r="E98">
@@ -6370,7 +6377,7 @@
       <c r="C99">
         <v>10</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>45602</v>
       </c>
       <c r="E99">
@@ -6387,7 +6394,7 @@
       <c r="C100">
         <v>7</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>45332</v>
       </c>
       <c r="E100">
@@ -6404,11 +6411,1371 @@
       <c r="C101">
         <v>5</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>45498</v>
       </c>
       <c r="E101">
         <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45491</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45585</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45611</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45385</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45453</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45518</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45566</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45616</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45651</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45544</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>18</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45599</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45327</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>11</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45437</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45394</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45473</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45478</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>20</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45644</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45550</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>18</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45595</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45371</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45516</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45448</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45495</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45605</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>16</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45627</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45543</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45582</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45316</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45430</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>16</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45506</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>16</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45616</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>17</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45404</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>17</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45483</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45442</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>18</v>
+      </c>
+      <c r="C137">
+        <v>11</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45573</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>19</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45457</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>19</v>
+      </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45562</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>20</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45505</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>20</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45608</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" s="2">
+        <v>43600</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2">
+        <v>43656</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144" s="2">
+        <v>43910</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145" s="2">
+        <v>44082</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2">
+        <v>44221</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>11</v>
+      </c>
+      <c r="D147" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" s="2">
+        <v>43628</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2">
+        <v>44048</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+      <c r="D150" s="2">
+        <v>44487</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151" s="2">
+        <v>44642</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" s="2">
+        <v>43723</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153">
+        <v>16</v>
+      </c>
+      <c r="D153" s="2">
+        <v>43881</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2">
+        <v>43650</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>20</v>
+      </c>
+      <c r="D155" s="2">
+        <v>44166</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2">
+        <v>44325</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>19</v>
+      </c>
+      <c r="D157" s="2">
+        <v>44870</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2">
+        <v>43939</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <v>13</v>
+      </c>
+      <c r="D159" s="2">
+        <v>44433</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160" s="2">
+        <v>44606</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>18</v>
+      </c>
+      <c r="D161" s="2">
+        <v>44816</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>11</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" s="2">
+        <v>43627</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>11</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2">
+        <v>44182</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>12</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>12</v>
+      </c>
+      <c r="C165">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2">
+        <v>44703</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2">
+        <v>43542</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" s="2">
+        <v>44042</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>14</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2">
+        <v>44484</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>19</v>
+      </c>
+      <c r="D169" s="2">
+        <v>44875</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+      <c r="D170" s="2">
+        <v>43926</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>15</v>
+      </c>
+      <c r="C171">
+        <v>13</v>
+      </c>
+      <c r="D171" s="2">
+        <v>44426</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>16</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2">
+        <v>43671</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>16</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173" s="2">
+        <v>44083</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>17</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174" s="2">
+        <v>44501</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>17</v>
+      </c>
+      <c r="C175">
+        <v>16</v>
+      </c>
+      <c r="D175" s="2">
+        <v>44701</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>18</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176" s="2">
+        <v>43692</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177" s="2">
+        <v>44126</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>19</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2">
+        <v>44267</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>19</v>
+      </c>
+      <c r="C179">
+        <v>14</v>
+      </c>
+      <c r="D179" s="2">
+        <v>44741</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>20</v>
+      </c>
+      <c r="C180">
+        <v>18</v>
+      </c>
+      <c r="D180" s="2">
+        <v>44821</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>20</v>
+      </c>
+      <c r="C181">
+        <v>20</v>
+      </c>
+      <c r="D181" s="2">
+        <v>44890</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
